--- a/recruit_info.xlsx
+++ b/recruit_info.xlsx
@@ -1,135 +1,70 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\autoHR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Desktop\Acuity_Office\Project_One\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A185DD-B1D5-43B6-BE0A-7D1A8DEC39B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9600" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7959ACFA-E93F-434B-9017-C7745B76C140}"/>
   </bookViews>
   <sheets>
-    <sheet name="Information" sheetId="1" r:id="rId1"/>
-    <sheet name="HR Information" sheetId="3" r:id="rId2"/>
-    <sheet name="Guide" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>Rahul Kalubowila</t>
-  </si>
-  <si>
-    <t>Rahul.Kalubowila@acuitykp.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Variable </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description </t>
-  </si>
-  <si>
-    <t>We group potential recruits into different states during each stage of recruitment.
-1 - Interviewed 
-2 - Not Interviewed  
-3 - Hold</t>
-  </si>
-  <si>
-    <t>Tom Holland</t>
-  </si>
-  <si>
-    <t>Jim Carrey</t>
-  </si>
-  <si>
-    <t>Mark Simmons</t>
-  </si>
-  <si>
-    <t>Jeff Bezos</t>
-  </si>
-  <si>
-    <t>Elon Musk</t>
-  </si>
-  <si>
-    <t>t_holland@mail.com</t>
-  </si>
-  <si>
-    <t>j_carrey@mail.com</t>
-  </si>
-  <si>
-    <t>m_simmons@mail.com</t>
-  </si>
-  <si>
-    <t>j_bezos@mail.com</t>
-  </si>
-  <si>
-    <t>e_musk@mail.com</t>
-  </si>
-  <si>
-    <t>radom coment on person xyz</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
   <si>
     <t>name</t>
   </si>
   <si>
+    <t>state</t>
+  </si>
+  <si>
     <t>email</t>
   </si>
   <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>comment</t>
-  </si>
-  <si>
-    <t>Email Sender</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Email Subject </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acuity Knowledge Partners Opportunities </t>
-  </si>
-  <si>
-    <t>hr@akp.com</t>
+    <t>Lankadinee</t>
+  </si>
+  <si>
+    <t>lankadinee@gmail.com</t>
+  </si>
+  <si>
+    <t>Prasanna</t>
+  </si>
+  <si>
+    <t>prasanna.wijesiriwardana@acuitykp.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -143,20 +78,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -164,51 +94,17 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
-    <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -241,7 +137,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -253,7 +149,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -300,6 +196,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -335,6 +248,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -486,200 +416,76 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB18F163-0929-4DCF-9063-B9289952D575}">
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
         <v>2</v>
       </c>
-      <c r="C2">
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C5" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B4" r:id="rId2"/>
-    <hyperlink ref="B7" r:id="rId3"/>
-    <hyperlink ref="B6" r:id="rId4"/>
-    <hyperlink ref="B5" r:id="rId5"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{D5DEFC44-38FC-4502-8D65-408BB6045D38}"/>
+    <hyperlink ref="C3:C4" r:id="rId2" display="lankadinee@gmail.com" xr:uid="{FEAEA79D-40F2-4CC9-AD06-653CC5C72CF4}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{29C92410-0798-4B07-8AF6-FD1526ECC99A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="55.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="59.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/recruit_info.xlsx
+++ b/recruit_info.xlsx
@@ -5,29 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Desktop\Acuity_Office\Project_One\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6e4dedc551d01c3d/AKP/Projects/autoHR-main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A185DD-B1D5-43B6-BE0A-7D1A8DEC39B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{F1A185DD-B1D5-43B6-BE0A-7D1A8DEC39B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DEBDE308-E0A8-4BBA-978E-425343216E3A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7959ACFA-E93F-434B-9017-C7745B76C140}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -51,10 +42,10 @@
     <t>lankadinee@gmail.com</t>
   </si>
   <si>
-    <t>Prasanna</t>
-  </si>
-  <si>
-    <t>prasanna.wijesiriwardana@acuitykp.com</t>
+    <t>Rahul</t>
+  </si>
+  <si>
+    <t>rahulkalubowila@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -420,7 +411,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/recruit_info.xlsx
+++ b/recruit_info.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6e4dedc551d01c3d/AKP/Projects/autoHR-main/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rahul Kalubowila\OneDrive\AKP\Projects\autoHR-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{F1A185DD-B1D5-43B6-BE0A-7D1A8DEC39B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DEBDE308-E0A8-4BBA-978E-425343216E3A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90FC32D9-A8E6-4AAB-AF01-F1383992F57F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7959ACFA-E93F-434B-9017-C7745B76C140}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>name</t>
   </si>
@@ -408,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB18F163-0929-4DCF-9063-B9289952D575}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,42 +440,31 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{D5DEFC44-38FC-4502-8D65-408BB6045D38}"/>
-    <hyperlink ref="C3:C4" r:id="rId2" display="lankadinee@gmail.com" xr:uid="{FEAEA79D-40F2-4CC9-AD06-653CC5C72CF4}"/>
-    <hyperlink ref="C5" r:id="rId3" xr:uid="{29C92410-0798-4B07-8AF6-FD1526ECC99A}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{29C92410-0798-4B07-8AF6-FD1526ECC99A}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{BEF303ED-29CA-4D59-B9E6-1135CB11E80C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
